--- a/target/test-classes/TEST_DATA/Login _data.xlsx
+++ b/target/test-classes/TEST_DATA/Login _data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9875"/>
+    <workbookView windowWidth="22943" windowHeight="9467" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="valid details" sheetId="1" r:id="rId1"/>
+    <sheet name="invalid details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>standard_user</t>
   </si>
@@ -24,15 +25,18 @@
   <si>
     <t>performance_glitch_user</t>
   </si>
+  <si>
+    <t>locked_out</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -44,113 +48,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF4A4A4A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,14 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -196,9 +168,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +214,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -225,175 +394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +408,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,21 +438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -463,11 +453,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,170 +486,176 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -977,8 +979,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -988,7 +990,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -996,7 +998,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1011,4 +1013,41 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>